--- a/6/1/1/3/5/Suscripciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/5/Suscripciones 2007 a 2021 - Trimestral.xlsx
@@ -3321,7 +3321,7 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>5295</v>
+        <v>5424</v>
       </c>
       <c r="C59">
         <v>4785</v>
@@ -3339,7 +3339,7 @@
         <v>1644</v>
       </c>
       <c r="H59">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="I59">
         <v>328</v>
@@ -3351,16 +3351,16 @@
         <v>365</v>
       </c>
       <c r="L59">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M59">
-        <v>511</v>
+        <v>640</v>
       </c>
       <c r="N59">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="O59">
-        <v>275</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/5/Suscripciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/5/Suscripciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Serie</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3363,6 +3366,53 @@
         <v>348</v>
       </c>
     </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>5062</v>
+      </c>
+      <c r="C60">
+        <v>4859</v>
+      </c>
+      <c r="D60">
+        <v>1557</v>
+      </c>
+      <c r="E60">
+        <v>3302</v>
+      </c>
+      <c r="F60">
+        <v>738</v>
+      </c>
+      <c r="G60">
+        <v>1631</v>
+      </c>
+      <c r="H60">
+        <v>1174</v>
+      </c>
+      <c r="I60">
+        <v>486</v>
+      </c>
+      <c r="J60">
+        <v>381</v>
+      </c>
+      <c r="K60">
+        <v>68</v>
+      </c>
+      <c r="L60">
+        <v>381</v>
+      </c>
+      <c r="M60">
+        <v>203</v>
+      </c>
+      <c r="N60">
+        <v>45</v>
+      </c>
+      <c r="O60">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
